--- a/output/5Y_P11_KFSDIV.xlsx
+++ b/output/5Y_P11_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-36</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-33</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-31</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-28</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-26</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-23</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-18</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4264</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>17.107</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.8894</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4004</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3877</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6367</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.0061</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.835</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.4216</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2404</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.382</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.9583</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2036</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9136</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.4338</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9657</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3568</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2487</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3991</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.5985</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.6955</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3398</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.8469</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.129</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-36</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-33</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-31</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-28</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-26</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-23</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -5409,10 +5412,10 @@
         <v>232275.6519</v>
       </c>
       <c r="K21" s="1">
-        <v>160219.9017</v>
+        <v>160255.829</v>
       </c>
       <c r="L21" s="1">
-        <v>12.2591</v>
+        <v>12.2618</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -5462,10 +5465,10 @@
         <v>223789.355</v>
       </c>
       <c r="K22" s="1">
-        <v>178180.3974</v>
+        <v>178216.3246</v>
       </c>
       <c r="L22" s="1">
-        <v>12.4139</v>
+        <v>12.4164</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-18</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -5515,10 +5518,10 @@
         <v>236123.8165</v>
       </c>
       <c r="K23" s="1">
-        <v>212613.7494</v>
+        <v>212649.6766</v>
       </c>
       <c r="L23" s="1">
-        <v>12.3938</v>
+        <v>12.3959</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -5568,10 +5571,10 @@
         <v>245868.0222</v>
       </c>
       <c r="K24" s="1">
-        <v>220171.9362</v>
+        <v>220207.8634</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3952</v>
+        <v>12.3972</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -5621,10 +5624,10 @@
         <v>273165.0202</v>
       </c>
       <c r="K25" s="1">
-        <v>230438.5148</v>
+        <v>230474.4421</v>
       </c>
       <c r="L25" s="1">
-        <v>12.3964</v>
+        <v>12.3983</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -5674,10 +5677,10 @@
         <v>291559.733</v>
       </c>
       <c r="K26" s="1">
-        <v>231096.3734</v>
+        <v>231132.3006</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3978</v>
+        <v>12.3998</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -5727,10 +5730,10 @@
         <v>311432.4824</v>
       </c>
       <c r="K27" s="1">
-        <v>232705.4638</v>
+        <v>232741.391</v>
       </c>
       <c r="L27" s="1">
-        <v>12.4041</v>
+        <v>12.406</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -5780,10 +5783,10 @@
         <v>343857.0752</v>
       </c>
       <c r="K28" s="1">
-        <v>232826.7652</v>
+        <v>232862.6924</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4048</v>
+        <v>12.4067</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -5833,10 +5836,10 @@
         <v>367457.3246</v>
       </c>
       <c r="K29" s="1">
-        <v>228827.8689</v>
+        <v>228879.7578</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3716</v>
+        <v>12.3744</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -5886,10 +5889,10 @@
         <v>350256.9907</v>
       </c>
       <c r="K30" s="1">
-        <v>225213.179</v>
+        <v>225279.5084</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3328</v>
+        <v>12.3364</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -5939,10 +5942,10 @@
         <v>373638.0409</v>
       </c>
       <c r="K31" s="1">
-        <v>262562.654</v>
+        <v>262628.9834</v>
       </c>
       <c r="L31" s="1">
-        <v>12.5337</v>
+        <v>12.5368</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -5992,10 +5995,10 @@
         <v>385066.3704</v>
       </c>
       <c r="K32" s="1">
-        <v>267268.8732</v>
+        <v>267335.2026</v>
       </c>
       <c r="L32" s="1">
-        <v>12.559</v>
+        <v>12.5621</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -6045,10 +6048,10 @@
         <v>393377.5738</v>
       </c>
       <c r="K33" s="1">
-        <v>275856.0529</v>
+        <v>275922.3823</v>
       </c>
       <c r="L33" s="1">
-        <v>12.6048</v>
+        <v>12.6079</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -6098,10 +6101,10 @@
         <v>440683.4204</v>
       </c>
       <c r="K34" s="1">
-        <v>287557.2892</v>
+        <v>287623.6186</v>
       </c>
       <c r="L34" s="1">
-        <v>12.661</v>
+        <v>12.6639</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -6151,10 +6154,10 @@
         <v>451386.5393</v>
       </c>
       <c r="K35" s="1">
-        <v>269982.6798</v>
+        <v>270119.2536</v>
       </c>
       <c r="L35" s="1">
-        <v>12.5177</v>
+        <v>12.524</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -6204,10 +6207,10 @@
         <v>445436.904</v>
       </c>
       <c r="K36" s="1">
-        <v>279316.8503</v>
+        <v>279453.4241</v>
       </c>
       <c r="L36" s="1">
-        <v>12.5964</v>
+        <v>12.6025</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -6257,10 +6260,10 @@
         <v>495396.1542</v>
       </c>
       <c r="K37" s="1">
-        <v>305333.091</v>
+        <v>305469.6648</v>
       </c>
       <c r="L37" s="1">
-        <v>12.7502</v>
+        <v>12.7559</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -6310,10 +6313,10 @@
         <v>521897.2218</v>
       </c>
       <c r="K38" s="1">
-        <v>295186.3591</v>
+        <v>295363.4754</v>
       </c>
       <c r="L38" s="1">
-        <v>12.6725</v>
+        <v>12.6801</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4264</v>
@@ -6363,10 +6366,10 @@
         <v>537166.7814</v>
       </c>
       <c r="K39" s="1">
-        <v>288659.2284</v>
+        <v>288862.4078</v>
       </c>
       <c r="L39" s="1">
-        <v>12.61</v>
+        <v>12.6189</v>
       </c>
       <c r="M39" s="1">
         <v>0.75</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>17.107</v>
@@ -6416,10 +6419,10 @@
         <v>578343.1040000001</v>
       </c>
       <c r="K40" s="1">
-        <v>293408.6267</v>
+        <v>293611.8062</v>
       </c>
       <c r="L40" s="1">
-        <v>12.658</v>
+        <v>12.6667</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.8894</v>
@@ -6469,10 +6472,10 @@
         <v>583381.5277</v>
       </c>
       <c r="K41" s="1">
-        <v>287641.8768</v>
+        <v>287868.1014</v>
       </c>
       <c r="L41" s="1">
-        <v>12.5919</v>
+        <v>12.6018</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4004</v>
@@ -6522,10 +6525,10 @@
         <v>602299.8207</v>
       </c>
       <c r="K42" s="1">
-        <v>302663.4571</v>
+        <v>302889.6816</v>
       </c>
       <c r="L42" s="1">
-        <v>12.7539</v>
+        <v>12.7635</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3877</v>
@@ -6575,10 +6578,10 @@
         <v>586895.6775</v>
       </c>
       <c r="K43" s="1">
-        <v>324330.8036</v>
+        <v>324557.0282</v>
       </c>
       <c r="L43" s="1">
-        <v>12.9476</v>
+        <v>12.9566</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6367</v>
@@ -6628,10 +6631,10 @@
         <v>576255.7333</v>
       </c>
       <c r="K44" s="1">
-        <v>359789.9877</v>
+        <v>360016.2123</v>
       </c>
       <c r="L44" s="1">
-        <v>13.1554</v>
+        <v>13.1636</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.0061</v>
@@ -6681,10 +6684,10 @@
         <v>538230.3353</v>
       </c>
       <c r="K45" s="1">
-        <v>390410.6143</v>
+        <v>390636.8388</v>
       </c>
       <c r="L45" s="1">
-        <v>13.2625</v>
+        <v>13.2702</v>
       </c>
       <c r="M45" s="1">
         <v>0.5</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.835</v>
@@ -6734,10 +6737,10 @@
         <v>589285.0943999999</v>
       </c>
       <c r="K46" s="1">
-        <v>448546.0768</v>
+        <v>448772.3013</v>
       </c>
       <c r="L46" s="1">
-        <v>13.2322</v>
+        <v>13.2389</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.4216</v>
@@ -6787,10 +6790,10 @@
         <v>618367.3915</v>
       </c>
       <c r="K47" s="1">
-        <v>430433.2298</v>
+        <v>430731.8394</v>
       </c>
       <c r="L47" s="1">
-        <v>13.2069</v>
+        <v>13.2161</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2404</v>
@@ -6840,10 +6843,10 @@
         <v>590689.2469</v>
       </c>
       <c r="K48" s="1">
-        <v>421314.5223</v>
+        <v>421649.5423</v>
       </c>
       <c r="L48" s="1">
-        <v>13.1824</v>
+        <v>13.1929</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.382</v>
@@ -6893,10 +6896,10 @@
         <v>581532.1416</v>
       </c>
       <c r="K49" s="1">
-        <v>469183.9005</v>
+        <v>469518.9205</v>
       </c>
       <c r="L49" s="1">
-        <v>13.191</v>
+        <v>13.2004</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.9583</v>
@@ -6946,10 +6949,10 @@
         <v>574946.5564</v>
       </c>
       <c r="K50" s="1">
-        <v>509817.9723</v>
+        <v>510152.9923</v>
       </c>
       <c r="L50" s="1">
-        <v>13.1248</v>
+        <v>13.1335</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2036</v>
@@ -6999,10 +7002,10 @@
         <v>594891.4495</v>
       </c>
       <c r="K51" s="1">
-        <v>536347.1624</v>
+        <v>536682.1824</v>
       </c>
       <c r="L51" s="1">
-        <v>13.0632</v>
+        <v>13.0714</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9136</v>
@@ -7052,10 +7055,10 @@
         <v>648762.8319</v>
       </c>
       <c r="K52" s="1">
-        <v>536296.0126</v>
+        <v>536631.2372</v>
       </c>
       <c r="L52" s="1">
-        <v>13.0633</v>
+        <v>13.0715</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.4338</v>
@@ -7105,10 +7108,10 @@
         <v>679304.8173</v>
       </c>
       <c r="K53" s="1">
-        <v>517128.8492</v>
+        <v>517540.6565</v>
       </c>
       <c r="L53" s="1">
-        <v>13.0679</v>
+        <v>13.0784</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9657</v>
@@ -7158,10 +7161,10 @@
         <v>671187.8774999999</v>
       </c>
       <c r="K54" s="1">
-        <v>506544.5603</v>
+        <v>506998.6711</v>
       </c>
       <c r="L54" s="1">
-        <v>13.06</v>
+        <v>13.0717</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3568</v>
@@ -7211,10 +7214,10 @@
         <v>707533.5828</v>
       </c>
       <c r="K55" s="1">
-        <v>534774.2738</v>
+        <v>535228.3846</v>
       </c>
       <c r="L55" s="1">
-        <v>13.0564</v>
+        <v>13.0674</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2487</v>
@@ -7264,10 +7267,10 @@
         <v>713162.5728</v>
       </c>
       <c r="K56" s="1">
-        <v>528763.9886</v>
+        <v>529242.1250999999</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0527</v>
+        <v>13.0645</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3991</v>
@@ -7317,10 +7320,10 @@
         <v>729348.6339</v>
       </c>
       <c r="K57" s="1">
-        <v>543192.6035</v>
+        <v>543670.74</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0585</v>
+        <v>13.07</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.5985</v>
@@ -7370,10 +7373,10 @@
         <v>762642.0374</v>
       </c>
       <c r="K58" s="1">
-        <v>546963.9939999999</v>
+        <v>547442.1305</v>
       </c>
       <c r="L58" s="1">
-        <v>13.061</v>
+        <v>13.0724</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.6955</v>
@@ -7423,10 +7426,10 @@
         <v>776700.9963999999</v>
       </c>
       <c r="K59" s="1">
-        <v>548637.0286</v>
+        <v>549115.1651</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0627</v>
+        <v>13.074</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3398</v>
@@ -7476,10 +7479,10 @@
         <v>771612.9298</v>
       </c>
       <c r="K60" s="1">
-        <v>554595.1829</v>
+        <v>555073.3194</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0694</v>
+        <v>13.0807</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.8469</v>
@@ -7529,10 +7532,10 @@
         <v>771170.0738</v>
       </c>
       <c r="K61" s="1">
-        <v>579759.9917</v>
+        <v>580238.1282</v>
       </c>
       <c r="L61" s="1">
-        <v>13.082</v>
+        <v>13.0928</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.129</v>
@@ -7582,10 +7585,10 @@
         <v>794216.0834</v>
       </c>
       <c r="K62" s="1">
-        <v>611687.132</v>
+        <v>612165.2685</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0709</v>
+        <v>13.0812</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-36</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-33</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-31</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-28</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-26</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-23</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -8721,10 +8724,10 @@
         <v>233287.6658</v>
       </c>
       <c r="K21" s="1">
-        <v>168173.2406</v>
+        <v>168208.7201</v>
       </c>
       <c r="L21" s="1">
-        <v>12.2982</v>
+        <v>12.3008</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -8774,10 +8777,10 @@
         <v>223878.8043</v>
       </c>
       <c r="K22" s="1">
-        <v>187498.4302</v>
+        <v>187533.9097</v>
       </c>
       <c r="L22" s="1">
-        <v>12.4534</v>
+        <v>12.4558</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-18</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -8827,10 +8830,10 @@
         <v>236331.8924</v>
       </c>
       <c r="K23" s="1">
-        <v>224179.1353</v>
+        <v>224214.6149</v>
       </c>
       <c r="L23" s="1">
-        <v>12.4265</v>
+        <v>12.4285</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -8880,10 +8883,10 @@
         <v>246059.9316</v>
       </c>
       <c r="K24" s="1">
-        <v>232717.8368</v>
+        <v>232753.3163</v>
       </c>
       <c r="L24" s="1">
-        <v>12.4268</v>
+        <v>12.4287</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -8933,10 +8936,10 @@
         <v>274318.6113</v>
       </c>
       <c r="K25" s="1">
-        <v>244161.0828</v>
+        <v>244196.5623</v>
       </c>
       <c r="L25" s="1">
-        <v>12.4266</v>
+        <v>12.4284</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -8986,10 +8989,10 @@
         <v>293211.6071</v>
       </c>
       <c r="K26" s="1">
-        <v>245504.795</v>
+        <v>245540.2745</v>
       </c>
       <c r="L26" s="1">
-        <v>12.4292</v>
+        <v>12.431</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -9039,10 +9042,10 @@
         <v>313697.3741</v>
       </c>
       <c r="K27" s="1">
-        <v>247887.5509</v>
+        <v>247923.0304</v>
       </c>
       <c r="L27" s="1">
-        <v>12.4377</v>
+        <v>12.4395</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -9092,10 +9095,10 @@
         <v>347555.519</v>
       </c>
       <c r="K28" s="1">
-        <v>248723.5538</v>
+        <v>248759.0333</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4421</v>
+        <v>12.4439</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -9145,10 +9148,10 @@
         <v>372077.7495</v>
       </c>
       <c r="K29" s="1">
-        <v>245201.2371</v>
+        <v>245250.7759</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4152</v>
+        <v>12.4177</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -9198,10 +9201,10 @@
         <v>352959.285</v>
       </c>
       <c r="K30" s="1">
-        <v>242108.1684</v>
+        <v>242170.064</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3846</v>
+        <v>12.3878</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -9251,10 +9254,10 @@
         <v>377295.3043</v>
       </c>
       <c r="K31" s="1">
-        <v>282888.1987</v>
+        <v>282950.0942</v>
       </c>
       <c r="L31" s="1">
-        <v>12.5822</v>
+        <v>12.585</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -9304,10 +9307,10 @@
         <v>388828.938</v>
       </c>
       <c r="K32" s="1">
-        <v>288766.143</v>
+        <v>288828.0386</v>
       </c>
       <c r="L32" s="1">
-        <v>12.6107</v>
+        <v>12.6134</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -9357,10 +9360,10 @@
         <v>397003.8096</v>
       </c>
       <c r="K33" s="1">
-        <v>298863.3728</v>
+        <v>298925.2684</v>
       </c>
       <c r="L33" s="1">
-        <v>12.6592</v>
+        <v>12.6618</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -9410,10 +9413,10 @@
         <v>447320.1705</v>
       </c>
       <c r="K34" s="1">
-        <v>312374.2085</v>
+        <v>312436.1041</v>
       </c>
       <c r="L34" s="1">
-        <v>12.717</v>
+        <v>12.7195</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -9463,10 +9466,10 @@
         <v>458082.5573</v>
       </c>
       <c r="K35" s="1">
-        <v>294285.8349</v>
+        <v>294420.0284</v>
       </c>
       <c r="L35" s="1">
-        <v>12.5838</v>
+        <v>12.5895</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -9516,10 +9519,10 @@
         <v>450740.4045</v>
       </c>
       <c r="K36" s="1">
-        <v>305356.759</v>
+        <v>305490.9525</v>
       </c>
       <c r="L36" s="1">
-        <v>12.6676</v>
+        <v>12.6732</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -9569,10 +9572,10 @@
         <v>504231.3582</v>
       </c>
       <c r="K37" s="1">
-        <v>334619.5729</v>
+        <v>334753.7663</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8209</v>
+        <v>12.8261</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -9622,10 +9625,10 @@
         <v>532261.5729</v>
       </c>
       <c r="K38" s="1">
-        <v>324573.6106</v>
+        <v>324747.9439</v>
       </c>
       <c r="L38" s="1">
-        <v>12.7524</v>
+        <v>12.7592</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4264</v>
@@ -9675,10 +9678,10 @@
         <v>548034.2737</v>
       </c>
       <c r="K39" s="1">
-        <v>318485.8927</v>
+        <v>318684.5345</v>
       </c>
       <c r="L39" s="1">
-        <v>12.7004</v>
+        <v>12.7083</v>
       </c>
       <c r="M39" s="1">
         <v>0.75</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>17.107</v>
@@ -9728,10 +9731,10 @@
         <v>592227.4444</v>
       </c>
       <c r="K40" s="1">
-        <v>324764.8948</v>
+        <v>324963.5367</v>
       </c>
       <c r="L40" s="1">
-        <v>12.7567</v>
+        <v>12.7645</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.8894</v>
@@ -9781,10 +9784,10 @@
         <v>596764.0967</v>
       </c>
       <c r="K41" s="1">
-        <v>319539.4539</v>
+        <v>319758.9776</v>
       </c>
       <c r="L41" s="1">
-        <v>12.7036</v>
+        <v>12.7123</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4004</v>
@@ -9834,10 +9837,10 @@
         <v>616546.8679</v>
       </c>
       <c r="K42" s="1">
-        <v>337220.6357</v>
+        <v>337440.1595</v>
       </c>
       <c r="L42" s="1">
-        <v>12.8718</v>
+        <v>12.8802</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3877</v>
@@ -9887,10 +9890,10 @@
         <v>598424.5984</v>
       </c>
       <c r="K43" s="1">
-        <v>362313.6818</v>
+        <v>362533.2055</v>
       </c>
       <c r="L43" s="1">
-        <v>13.068</v>
+        <v>13.0759</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6367</v>
@@ -9940,10 +9943,10 @@
         <v>585516.4635</v>
       </c>
       <c r="K44" s="1">
-        <v>402766.2279</v>
+        <v>402985.7517</v>
       </c>
       <c r="L44" s="1">
-        <v>13.2712</v>
+        <v>13.2784</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.0061</v>
@@ -9993,10 +9996,10 @@
         <v>542081.296</v>
       </c>
       <c r="K45" s="1">
-        <v>437983.7903</v>
+        <v>438203.3141</v>
       </c>
       <c r="L45" s="1">
-        <v>13.3735</v>
+        <v>13.3802</v>
       </c>
       <c r="M45" s="1">
         <v>0.5</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.835</v>
@@ -10046,10 +10049,10 @@
         <v>597832.3223999999</v>
       </c>
       <c r="K46" s="1">
-        <v>503933.8745</v>
+        <v>504153.3982</v>
       </c>
       <c r="L46" s="1">
-        <v>13.3278</v>
+        <v>13.3336</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.4216</v>
@@ -10099,10 +10102,10 @@
         <v>629172.3368</v>
       </c>
       <c r="K47" s="1">
-        <v>485035.2105</v>
+        <v>485330.2597</v>
       </c>
       <c r="L47" s="1">
-        <v>13.3078</v>
+        <v>13.3159</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2404</v>
@@ -10152,10 +10155,10 @@
         <v>596927.1219</v>
       </c>
       <c r="K48" s="1">
-        <v>476176.0301</v>
+        <v>476506.4535</v>
       </c>
       <c r="L48" s="1">
-        <v>13.2882</v>
+        <v>13.2974</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.382</v>
@@ -10205,10 +10208,10 @@
         <v>585353.8451</v>
       </c>
       <c r="K49" s="1">
-        <v>531219.9294</v>
+        <v>531550.3527</v>
       </c>
       <c r="L49" s="1">
-        <v>13.286</v>
+        <v>13.2943</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.9583</v>
@@ -10258,10 +10261,10 @@
         <v>576656.1102</v>
       </c>
       <c r="K50" s="1">
-        <v>578303.6223</v>
+        <v>578634.0456</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2098</v>
+        <v>13.2173</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2036</v>
@@ -10311,10 +10314,10 @@
         <v>597888.0516</v>
       </c>
       <c r="K51" s="1">
-        <v>609643.2995</v>
+        <v>609973.7229000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1406</v>
+        <v>13.1477</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9136</v>
@@ -10364,10 +10367,10 @@
         <v>657540.9989</v>
       </c>
       <c r="K52" s="1">
-        <v>611060.1579</v>
+        <v>611390.5812</v>
       </c>
       <c r="L52" s="1">
-        <v>13.1383</v>
+        <v>13.1454</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.4338</v>
@@ -10417,10 +10420,10 @@
         <v>690873.6287</v>
       </c>
       <c r="K53" s="1">
-        <v>590854.8718</v>
+        <v>591266.0257</v>
       </c>
       <c r="L53" s="1">
-        <v>13.1452</v>
+        <v>13.1544</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9657</v>
@@ -10470,10 +10473,10 @@
         <v>680241.9076</v>
       </c>
       <c r="K54" s="1">
-        <v>580376.7824</v>
+        <v>580829.8154</v>
       </c>
       <c r="L54" s="1">
-        <v>13.1397</v>
+        <v>13.1499</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3568</v>
@@ -10523,10 +10526,10 @@
         <v>720285.7471</v>
       </c>
       <c r="K55" s="1">
-        <v>614104.1411</v>
+        <v>614557.174</v>
       </c>
       <c r="L55" s="1">
-        <v>13.1315</v>
+        <v>13.1411</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2487</v>
@@ -10576,10 +10579,10 @@
         <v>725282.018</v>
       </c>
       <c r="K56" s="1">
-        <v>608856.1433999999</v>
+        <v>609330.1548</v>
       </c>
       <c r="L56" s="1">
-        <v>13.1293</v>
+        <v>13.1395</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3991</v>
@@ -10629,10 +10632,10 @@
         <v>742375.6012</v>
       </c>
       <c r="K57" s="1">
-        <v>627023.2375</v>
+        <v>627497.249</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1335</v>
+        <v>13.1434</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.5985</v>
@@ -10682,10 +10685,10 @@
         <v>779128.6587</v>
       </c>
       <c r="K58" s="1">
-        <v>633037.423</v>
+        <v>633511.4344</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1362</v>
+        <v>13.1461</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.6955</v>
@@ -10735,10 +10738,10 @@
         <v>793804.8196</v>
       </c>
       <c r="K59" s="1">
-        <v>636684.1996000001</v>
+        <v>637158.211</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1389</v>
+        <v>13.1487</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3398</v>
@@ -10788,10 +10791,10 @@
         <v>786344.5096</v>
       </c>
       <c r="K60" s="1">
-        <v>645316.1297</v>
+        <v>645790.1412</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1464</v>
+        <v>13.1561</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.8469</v>
@@ -10841,10 +10844,10 @@
         <v>784191.3754</v>
       </c>
       <c r="K61" s="1">
-        <v>676220.0542</v>
+        <v>676694.0656</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1563</v>
+        <v>13.1655</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.129</v>
@@ -10894,10 +10897,10 @@
         <v>809354.7941000001</v>
       </c>
       <c r="K62" s="1">
-        <v>715079.7414000001</v>
+        <v>715553.7529</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1406</v>
+        <v>13.1493</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-36</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-33</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-31</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-28</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-26</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-23</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -12033,10 +12036,10 @@
         <v>234338.8876</v>
       </c>
       <c r="K21" s="1">
-        <v>176600.1872</v>
+        <v>176635.0689</v>
       </c>
       <c r="L21" s="1">
-        <v>12.3366</v>
+        <v>12.3391</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -12086,10 +12089,10 @@
         <v>223949.105</v>
       </c>
       <c r="K22" s="1">
-        <v>197405.0145</v>
+        <v>197439.8962</v>
       </c>
       <c r="L22" s="1">
-        <v>12.4922</v>
+        <v>12.4944</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-18</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -12139,10 +12142,10 @@
         <v>236528.4845</v>
       </c>
       <c r="K23" s="1">
-        <v>236511.6014</v>
+        <v>236546.4831</v>
       </c>
       <c r="L23" s="1">
-        <v>12.4584</v>
+        <v>12.4602</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -12192,10 +12195,10 @@
         <v>246239.0791</v>
       </c>
       <c r="K24" s="1">
-        <v>246138.3878</v>
+        <v>246173.2695</v>
       </c>
       <c r="L24" s="1">
-        <v>12.4575</v>
+        <v>12.4593</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -12245,10 +12248,10 @@
         <v>275492.2235</v>
       </c>
       <c r="K25" s="1">
-        <v>257912.537</v>
+        <v>257947.4187</v>
       </c>
       <c r="L25" s="1">
-        <v>12.4559</v>
+        <v>12.4576</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -12298,10 +12301,10 @@
         <v>294917.3682</v>
       </c>
       <c r="K26" s="1">
-        <v>261058.7593</v>
+        <v>261093.641</v>
       </c>
       <c r="L26" s="1">
-        <v>12.4614</v>
+        <v>12.463</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -12351,10 +12354,10 @@
         <v>316065.0718</v>
       </c>
       <c r="K27" s="1">
-        <v>264331.4648</v>
+        <v>264366.3465</v>
       </c>
       <c r="L27" s="1">
-        <v>12.472</v>
+        <v>12.4736</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -12404,10 +12407,10 @@
         <v>351474.7578</v>
       </c>
       <c r="K28" s="1">
-        <v>266001.6715</v>
+        <v>266036.5532</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4801</v>
+        <v>12.4817</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -12457,10 +12460,10 @@
         <v>376999.6378</v>
       </c>
       <c r="K29" s="1">
-        <v>263063.4693</v>
+        <v>263110.0789</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4594</v>
+        <v>12.4616</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -12510,10 +12513,10 @@
         <v>355788.1321</v>
       </c>
       <c r="K30" s="1">
-        <v>260610.8801</v>
+        <v>260667.2877</v>
       </c>
       <c r="L30" s="1">
-        <v>12.4371</v>
+        <v>12.4398</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -12563,10 +12566,10 @@
         <v>381167.3298</v>
       </c>
       <c r="K31" s="1">
-        <v>305213.3988</v>
+        <v>305269.8063</v>
       </c>
       <c r="L31" s="1">
-        <v>12.6312</v>
+        <v>12.6336</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -12616,10 +12619,10 @@
         <v>392816.3299</v>
       </c>
       <c r="K32" s="1">
-        <v>312459.5206</v>
+        <v>312515.9281</v>
       </c>
       <c r="L32" s="1">
-        <v>12.6628</v>
+        <v>12.6651</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -12669,10 +12672,10 @@
         <v>400840.5711</v>
       </c>
       <c r="K33" s="1">
-        <v>324307.4023</v>
+        <v>324363.8099</v>
       </c>
       <c r="L33" s="1">
-        <v>12.7137</v>
+        <v>12.7159</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -12722,10 +12725,10 @@
         <v>454483.6353</v>
       </c>
       <c r="K34" s="1">
-        <v>339911.4403</v>
+        <v>339967.8478</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7731</v>
+        <v>12.7752</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -12775,10 +12778,10 @@
         <v>465311.803</v>
       </c>
       <c r="K35" s="1">
-        <v>321360.1198</v>
+        <v>321490.6756</v>
       </c>
       <c r="L35" s="1">
-        <v>12.65</v>
+        <v>12.6552</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -12828,10 +12831,10 @@
         <v>456418.4124</v>
       </c>
       <c r="K36" s="1">
-        <v>334471.231</v>
+        <v>334601.7868</v>
       </c>
       <c r="L36" s="1">
-        <v>12.739</v>
+        <v>12.744</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -12881,10 +12884,10 @@
         <v>513848.9348</v>
       </c>
       <c r="K37" s="1">
-        <v>367469.7917</v>
+        <v>367600.3476</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8917</v>
+        <v>12.8963</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -12934,10 +12937,10 @@
         <v>543593.7816</v>
       </c>
       <c r="K38" s="1">
-        <v>357664.3723</v>
+        <v>357834.1069</v>
       </c>
       <c r="L38" s="1">
-        <v>12.8322</v>
+        <v>12.8383</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4264</v>
@@ -12987,10 +12990,10 @@
         <v>559932.5843</v>
       </c>
       <c r="K39" s="1">
-        <v>352205.4155</v>
+        <v>352396.948</v>
       </c>
       <c r="L39" s="1">
-        <v>12.7907</v>
+        <v>12.7976</v>
       </c>
       <c r="M39" s="1">
         <v>0.75</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>17.107</v>
@@ -13040,10 +13043,10 @@
         <v>607525.5018</v>
       </c>
       <c r="K40" s="1">
-        <v>360349.8875</v>
+        <v>360541.42</v>
       </c>
       <c r="L40" s="1">
-        <v>12.8555</v>
+        <v>12.8623</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.8894</v>
@@ -13093,10 +13096,10 @@
         <v>611493.7197</v>
       </c>
       <c r="K41" s="1">
-        <v>355888.7503</v>
+        <v>356098.1103</v>
       </c>
       <c r="L41" s="1">
-        <v>12.8153</v>
+        <v>12.8228</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4004</v>
@@ -13146,10 +13149,10 @@
         <v>632250.4947</v>
       </c>
       <c r="K42" s="1">
-        <v>376745.0683</v>
+        <v>376954.4283</v>
       </c>
       <c r="L42" s="1">
-        <v>12.9898</v>
+        <v>12.9971</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3877</v>
@@ -13199,10 +13202,10 @@
         <v>611027.1884</v>
       </c>
       <c r="K43" s="1">
-        <v>405903.7677</v>
+        <v>406113.1278</v>
       </c>
       <c r="L43" s="1">
-        <v>13.1884</v>
+        <v>13.1952</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6367</v>
@@ -13252,10 +13255,10 @@
         <v>595522.3331</v>
       </c>
       <c r="K44" s="1">
-        <v>452233.1169</v>
+        <v>452442.477</v>
       </c>
       <c r="L44" s="1">
-        <v>13.3867</v>
+        <v>13.3929</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.0061</v>
@@ -13305,10 +13308,10 @@
         <v>545873.4009</v>
       </c>
       <c r="K45" s="1">
-        <v>492903.2793</v>
+        <v>493112.6393</v>
       </c>
       <c r="L45" s="1">
-        <v>13.4838</v>
+        <v>13.4895</v>
       </c>
       <c r="M45" s="1">
         <v>0.5</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.835</v>
@@ -13358,10 +13361,10 @@
         <v>607030.0302</v>
       </c>
       <c r="K46" s="1">
-        <v>568029.8264</v>
+        <v>568239.1864</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4223</v>
+        <v>13.4272</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.4216</v>
@@ -13411,10 +13414,10 @@
         <v>640980.889</v>
       </c>
       <c r="K47" s="1">
-        <v>548437.6176999999</v>
+        <v>548725.2748</v>
       </c>
       <c r="L47" s="1">
-        <v>13.407</v>
+        <v>13.4141</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2404</v>
@@ -13464,10 +13467,10 @@
         <v>603436.0788</v>
       </c>
       <c r="K48" s="1">
-        <v>540101.5811</v>
+        <v>540422.5235</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3921</v>
+        <v>13.4001</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.382</v>
@@ -13517,10 +13520,10 @@
         <v>589043.0265</v>
       </c>
       <c r="K49" s="1">
-        <v>603705.0697</v>
+        <v>604026.012</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3788</v>
+        <v>13.3859</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.9583</v>
@@ -13570,10 +13573,10 @@
         <v>578386.8565</v>
       </c>
       <c r="K50" s="1">
-        <v>645142.3461</v>
+        <v>645463.2885</v>
       </c>
       <c r="L50" s="1">
-        <v>13.3118</v>
+        <v>13.3185</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2036</v>
@@ -13623,10 +13626,10 @@
         <v>600415.1304</v>
       </c>
       <c r="K51" s="1">
-        <v>655142.3461</v>
+        <v>655463.2885</v>
       </c>
       <c r="L51" s="1">
-        <v>13.2893</v>
+        <v>13.2958</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9136</v>
@@ -13676,10 +13679,10 @@
         <v>663634.9007</v>
       </c>
       <c r="K52" s="1">
-        <v>665142.3461</v>
+        <v>665463.2885</v>
       </c>
       <c r="L52" s="1">
-        <v>13.272</v>
+        <v>13.2784</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.4338</v>
@@ -13729,10 +13732,10 @@
         <v>700201.1343</v>
       </c>
       <c r="K53" s="1">
-        <v>680393.9492</v>
+        <v>680714.8915</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2644</v>
+        <v>13.2706</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9657</v>
@@ -13782,10 +13785,10 @@
         <v>686590.2701</v>
       </c>
       <c r="K54" s="1">
-        <v>670337.3646</v>
+        <v>670698.5013</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2615</v>
+        <v>13.2686</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3568</v>
@@ -13835,10 +13838,10 @@
         <v>731023.1792</v>
       </c>
       <c r="K55" s="1">
-        <v>710887.1085</v>
+        <v>711248.2452</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2458</v>
+        <v>13.2525</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2487</v>
@@ -13888,10 +13891,10 @@
         <v>735264.6935000001</v>
       </c>
       <c r="K56" s="1">
-        <v>706868.7021</v>
+        <v>707245.9020999999</v>
       </c>
       <c r="L56" s="1">
-        <v>13.245</v>
+        <v>13.2521</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3991</v>
@@ -13941,10 +13944,10 @@
         <v>753443.3091</v>
       </c>
       <c r="K57" s="1">
-        <v>729832.9752</v>
+        <v>730210.1752000001</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2459</v>
+        <v>13.2528</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.5985</v>
@@ -13994,10 +13997,10 @@
         <v>794341.4423</v>
       </c>
       <c r="K58" s="1">
-        <v>738884.0571</v>
+        <v>739261.2571</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2481</v>
+        <v>13.2549</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.6955</v>
@@ -14047,10 +14050,10 @@
         <v>809760.1117</v>
       </c>
       <c r="K59" s="1">
-        <v>745268.871</v>
+        <v>745646.071</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2513</v>
+        <v>13.258</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3398</v>
@@ -14100,10 +14103,10 @@
         <v>799429.0018</v>
       </c>
       <c r="K60" s="1">
-        <v>757506.2576</v>
+        <v>757883.4576</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2586</v>
+        <v>13.2652</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.8469</v>
@@ -14153,10 +14156,10 @@
         <v>795190.9678</v>
       </c>
       <c r="K61" s="1">
-        <v>795750.2928000001</v>
+        <v>796127.4929</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2638</v>
+        <v>13.2701</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.129</v>
@@ -14206,10 +14209,10 @@
         <v>822722.7254999999</v>
       </c>
       <c r="K62" s="1">
-        <v>831742.8353</v>
+        <v>832120.0354000001</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2464</v>
+        <v>13.2524</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-36</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-33</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-31</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-28</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-26</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-23</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -15345,10 +15348,10 @@
         <v>235193.0445</v>
       </c>
       <c r="K21" s="1">
-        <v>185768.3203</v>
+        <v>185802.4372</v>
       </c>
       <c r="L21" s="1">
-        <v>12.3901</v>
+        <v>12.3924</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -15398,10 +15401,10 @@
         <v>223760.0702</v>
       </c>
       <c r="K22" s="1">
-        <v>208177.2846</v>
+        <v>208211.4015</v>
       </c>
       <c r="L22" s="1">
-        <v>12.5446</v>
+        <v>12.5466</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-18</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -15451,10 +15454,10 @@
         <v>236388.0433</v>
       </c>
       <c r="K23" s="1">
-        <v>238791.0744</v>
+        <v>238825.1913</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5114</v>
+        <v>12.5132</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -15504,10 +15507,10 @@
         <v>246095.4726</v>
       </c>
       <c r="K24" s="1">
-        <v>248791.0744</v>
+        <v>248825.1913</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5083</v>
+        <v>12.51</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -15557,10 +15560,10 @@
         <v>275409.457</v>
       </c>
       <c r="K25" s="1">
-        <v>258791.0744</v>
+        <v>258825.1913</v>
       </c>
       <c r="L25" s="1">
-        <v>12.505</v>
+        <v>12.5066</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -15610,10 +15613,10 @@
         <v>295317.1883</v>
       </c>
       <c r="K26" s="1">
-        <v>277741.5919</v>
+        <v>277775.7088</v>
       </c>
       <c r="L26" s="1">
-        <v>12.5329</v>
+        <v>12.5345</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -15663,10 +15666,10 @@
         <v>317175.7831</v>
       </c>
       <c r="K27" s="1">
-        <v>283075.9701</v>
+        <v>283110.087</v>
       </c>
       <c r="L27" s="1">
-        <v>12.5479</v>
+        <v>12.5494</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -15716,10 +15719,10 @@
         <v>354265.4586</v>
       </c>
       <c r="K28" s="1">
-        <v>285716.0526</v>
+        <v>285750.1695</v>
       </c>
       <c r="L28" s="1">
-        <v>12.5592</v>
+        <v>12.5607</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -15769,10 +15772,10 @@
         <v>380881.2754</v>
       </c>
       <c r="K29" s="1">
-        <v>283485.8705</v>
+        <v>283528.8891</v>
       </c>
       <c r="L29" s="1">
-        <v>12.5451</v>
+        <v>12.547</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -15822,10 +15825,10 @@
         <v>357384.5706</v>
       </c>
       <c r="K30" s="1">
-        <v>281811.3659</v>
+        <v>281861.0741</v>
       </c>
       <c r="L30" s="1">
-        <v>12.5313</v>
+        <v>12.5335</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -15875,10 +15878,10 @@
         <v>383903.9746</v>
       </c>
       <c r="K31" s="1">
-        <v>330675.4126</v>
+        <v>330725.1208</v>
       </c>
       <c r="L31" s="1">
-        <v>12.7162</v>
+        <v>12.7181</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -15928,10 +15931,10 @@
         <v>395679.4455</v>
       </c>
       <c r="K32" s="1">
-        <v>339515.8345</v>
+        <v>339565.5428</v>
       </c>
       <c r="L32" s="1">
-        <v>12.7499</v>
+        <v>12.7518</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -15981,10 +15984,10 @@
         <v>403537.1292</v>
       </c>
       <c r="K33" s="1">
-        <v>353391.2921</v>
+        <v>353441.0003</v>
       </c>
       <c r="L33" s="1">
-        <v>12.8019</v>
+        <v>12.8037</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -16034,10 +16037,10 @@
         <v>460859.2077</v>
       </c>
       <c r="K34" s="1">
-        <v>371415.4459</v>
+        <v>371465.1542</v>
       </c>
       <c r="L34" s="1">
-        <v>12.8612</v>
+        <v>12.863</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -16087,10 +16090,10 @@
         <v>471760.4487</v>
       </c>
       <c r="K35" s="1">
-        <v>352470.9216</v>
+        <v>352596.3498</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7497</v>
+        <v>12.7542</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -16140,10 +16143,10 @@
         <v>461137.3715</v>
       </c>
       <c r="K36" s="1">
-        <v>367976.4159</v>
+        <v>368101.844</v>
       </c>
       <c r="L36" s="1">
-        <v>12.8427</v>
+        <v>12.847</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -16193,10 +16196,10 @@
         <v>522966.7377</v>
       </c>
       <c r="K37" s="1">
-        <v>405276.4696</v>
+        <v>405401.8978</v>
       </c>
       <c r="L37" s="1">
-        <v>12.9919</v>
+        <v>12.9959</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -16246,10 +16249,10 @@
         <v>554636.2922</v>
       </c>
       <c r="K38" s="1">
-        <v>395886.8181</v>
+        <v>396049.7637</v>
       </c>
       <c r="L38" s="1">
-        <v>12.9419</v>
+        <v>12.9473</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4264</v>
@@ -16299,10 +16302,10 @@
         <v>571612.7774</v>
       </c>
       <c r="K39" s="1">
-        <v>391290.3048</v>
+        <v>391471.6046</v>
       </c>
       <c r="L39" s="1">
-        <v>12.9112</v>
+        <v>12.9172</v>
       </c>
       <c r="M39" s="1">
         <v>0.75</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>17.107</v>
@@ -16352,10 +16355,10 @@
         <v>623041.5471</v>
       </c>
       <c r="K40" s="1">
-        <v>401703.1506</v>
+        <v>401884.4503</v>
       </c>
       <c r="L40" s="1">
-        <v>12.9838</v>
+        <v>12.9896</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.8894</v>
@@ -16405,10 +16408,10 @@
         <v>626364.9595</v>
       </c>
       <c r="K41" s="1">
-        <v>398283.8136</v>
+        <v>398478.7777</v>
       </c>
       <c r="L41" s="1">
-        <v>12.9568</v>
+        <v>12.9631</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4004</v>
@@ -16458,10 +16461,10 @@
         <v>648220.3909999999</v>
       </c>
       <c r="K42" s="1">
-        <v>422930.9572</v>
+        <v>423125.9213</v>
       </c>
       <c r="L42" s="1">
-        <v>13.1362</v>
+        <v>13.1423</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3877</v>
@@ -16511,10 +16514,10 @@
         <v>623453.9044</v>
       </c>
       <c r="K43" s="1">
-        <v>456918.5564</v>
+        <v>457113.5205</v>
       </c>
       <c r="L43" s="1">
-        <v>13.3352</v>
+        <v>13.3409</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6367</v>
@@ -16564,10 +16567,10 @@
         <v>604971.5034</v>
       </c>
       <c r="K44" s="1">
-        <v>510174.2151</v>
+        <v>510369.1792</v>
       </c>
       <c r="L44" s="1">
-        <v>13.526</v>
+        <v>13.5312</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.0061</v>
@@ -16617,10 +16620,10 @@
         <v>548173.3896</v>
       </c>
       <c r="K45" s="1">
-        <v>557320.7005</v>
+        <v>557515.6645</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6155</v>
+        <v>13.6203</v>
       </c>
       <c r="M45" s="1">
         <v>0.5</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.835</v>
@@ -16670,10 +16673,10 @@
         <v>612050.3072</v>
       </c>
       <c r="K46" s="1">
-        <v>584183.9425</v>
+        <v>584378.9065</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5876</v>
+        <v>13.5921</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.4216</v>
@@ -16723,10 +16726,10 @@
         <v>648310.0247</v>
       </c>
       <c r="K47" s="1">
-        <v>612603.6439</v>
+        <v>612798.6078999999</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6001</v>
+        <v>13.6044</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2404</v>
@@ -16776,10 +16779,10 @@
         <v>604574.0235</v>
       </c>
       <c r="K48" s="1">
-        <v>620007.3213</v>
+        <v>620202.2854000001</v>
       </c>
       <c r="L48" s="1">
-        <v>13.6097</v>
+        <v>13.6139</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.382</v>
@@ -16829,10 +16832,10 @@
         <v>591082.441</v>
       </c>
       <c r="K49" s="1">
-        <v>632603.6439</v>
+        <v>632798.6078999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6027</v>
+        <v>13.6069</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.9583</v>
@@ -16882,10 +16885,10 @@
         <v>580414.5509</v>
       </c>
       <c r="K50" s="1">
-        <v>659003.9475</v>
+        <v>659198.9116</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5503</v>
+        <v>13.5544</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2036</v>
@@ -16935,10 +16938,10 @@
         <v>602484.417</v>
       </c>
       <c r="K51" s="1">
-        <v>669003.9475</v>
+        <v>669198.9116</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5239</v>
+        <v>13.5278</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9136</v>
@@ -16988,10 +16991,10 @@
         <v>665885.7461</v>
       </c>
       <c r="K52" s="1">
-        <v>679003.9475</v>
+        <v>679198.9116</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5028</v>
+        <v>13.5067</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.4338</v>
@@ -17041,10 +17044,10 @@
         <v>702993.7594</v>
       </c>
       <c r="K53" s="1">
-        <v>706812.5384</v>
+        <v>707007.5024999999</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4797</v>
+        <v>13.4834</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9657</v>
@@ -17094,10 +17097,10 @@
         <v>688114.2894</v>
       </c>
       <c r="K54" s="1">
-        <v>716812.5384</v>
+        <v>717007.5024999999</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4795</v>
+        <v>13.4831</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3568</v>
@@ -17147,10 +17150,10 @@
         <v>733488.2787</v>
       </c>
       <c r="K55" s="1">
-        <v>726812.5384</v>
+        <v>727007.5024999999</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4725</v>
+        <v>13.4761</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2487</v>
@@ -17200,10 +17203,10 @@
         <v>737373.5588</v>
       </c>
       <c r="K56" s="1">
-        <v>751170.6319</v>
+        <v>751365.596</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4696</v>
+        <v>13.4731</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3991</v>
@@ -17253,10 +17256,10 @@
         <v>755817.4558</v>
       </c>
       <c r="K57" s="1">
-        <v>761170.6319</v>
+        <v>761365.596</v>
       </c>
       <c r="L57" s="1">
-        <v>13.467</v>
+        <v>13.4705</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.5985</v>
@@ -17306,10 +17309,10 @@
         <v>797521.0635</v>
       </c>
       <c r="K58" s="1">
-        <v>771170.6319</v>
+        <v>771365.596</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4665</v>
+        <v>13.4699</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.6955</v>
@@ -17359,10 +17362,10 @@
         <v>813158.8426</v>
       </c>
       <c r="K59" s="1">
-        <v>801518.2373</v>
+        <v>801713.2014</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4724</v>
+        <v>13.4757</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3398</v>
@@ -17412,10 +17415,10 @@
         <v>801740.1360000001</v>
       </c>
       <c r="K60" s="1">
-        <v>811518.2373</v>
+        <v>811713.2014</v>
       </c>
       <c r="L60" s="1">
-        <v>13.4755</v>
+        <v>13.4787</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.8469</v>
@@ -17465,10 +17468,10 @@
         <v>797968.9368</v>
       </c>
       <c r="K61" s="1">
-        <v>821518.2373</v>
+        <v>821713.2014</v>
       </c>
       <c r="L61" s="1">
-        <v>13.4741</v>
+        <v>13.4773</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.129</v>
@@ -17518,10 +17521,10 @@
         <v>825601.4025</v>
       </c>
       <c r="K62" s="1">
-        <v>847778.1495000001</v>
+        <v>847973.1136</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4547</v>
+        <v>13.4578</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.5008</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0709</v>
+        <v>13.0812</v>
       </c>
       <c r="E3" s="1">
-        <v>13.1406</v>
+        <v>13.1493</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2464</v>
+        <v>13.2524</v>
       </c>
       <c r="G3" s="1">
-        <v>13.4547</v>
+        <v>13.4578</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>247973.1136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9705</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2974</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1311</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9887</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9736</v>
       </c>
     </row>
   </sheetData>
